--- a/output/fit_clients/fit_round_143.xlsx
+++ b/output/fit_clients/fit_round_143.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1688459233.717362</v>
+        <v>1972636295.264314</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07860710340655763</v>
+        <v>0.1148688668619603</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03408885132904831</v>
+        <v>0.03364417555783715</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>844229570.5424997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2160871905.885818</v>
+        <v>2279039808.518636</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1723789987366721</v>
+        <v>0.1557789234033495</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03596667395647283</v>
+        <v>0.03439267134768668</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1080436017.873003</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4450076822.322351</v>
+        <v>3313975703.417161</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1578762072816279</v>
+        <v>0.119978166176232</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03617439695402094</v>
+        <v>0.03443449235673499</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>52</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2225038457.183662</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2991197654.859001</v>
+        <v>3491212200.921415</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09686312968810488</v>
+        <v>0.1010892636644086</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03766990209883712</v>
+        <v>0.03797260937623888</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>53</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1495598897.844239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2810407564.421601</v>
+        <v>2550879518.749789</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1377990640691021</v>
+        <v>0.1104597068667162</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05110869721612146</v>
+        <v>0.05643519747946039</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>22</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1405203724.060229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2068922801.877951</v>
+        <v>2425484445.607966</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06832875208301585</v>
+        <v>0.08160756494840264</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04392325649045994</v>
+        <v>0.03495411369057772</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>41</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1034461455.476362</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3491664610.609773</v>
+        <v>3343024372.296479</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1419739615981396</v>
+        <v>0.1606867513363704</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02843644266318938</v>
+        <v>0.02964743639508094</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>45</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1745832413.030557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1630077758.489061</v>
+        <v>1696627875.04192</v>
       </c>
       <c r="F9" t="n">
-        <v>0.131144458850332</v>
+        <v>0.1356319399091161</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02584306137583325</v>
+        <v>0.02502393992121006</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>815038957.1449676</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5745210384.893312</v>
+        <v>5061847246.06141</v>
       </c>
       <c r="F10" t="n">
-        <v>0.138297521410212</v>
+        <v>0.1398235855672484</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04893474468327218</v>
+        <v>0.03471943488803646</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>60</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2872605349.409572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3387089763.271122</v>
+        <v>4222931327.471071</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1344326883830253</v>
+        <v>0.1170559291679187</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04503816091760866</v>
+        <v>0.04210924093881915</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>59</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1693544851.571756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2130951868.956815</v>
+        <v>2430594145.605327</v>
       </c>
       <c r="F12" t="n">
-        <v>0.191109633629025</v>
+        <v>0.1378213039162815</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03371980808186869</v>
+        <v>0.042702963207183</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>49</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1065475872.872306</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3962697860.677184</v>
+        <v>5178927361.225799</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09395376229283935</v>
+        <v>0.07673342575396096</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02170024764896602</v>
+        <v>0.02880788935794395</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>48</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1981348987.115855</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2512910798.245285</v>
+        <v>3762112203.039123</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1678431426180257</v>
+        <v>0.1326451447126638</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03447959173801352</v>
+        <v>0.03112189201964699</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>46</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1256455468.772483</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1803446616.269793</v>
+        <v>1687575701.911632</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07854714009102021</v>
+        <v>0.06874173966725913</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04026942963830508</v>
+        <v>0.04197487024847932</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>901723462.3898252</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2047868967.434229</v>
+        <v>2549530502.248075</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1113028387364382</v>
+        <v>0.07558432835146066</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04172768272930964</v>
+        <v>0.03896065064703267</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1023934554.890872</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3759090857.014966</v>
+        <v>4951460934.284485</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1061385690028081</v>
+        <v>0.1210375376423747</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0430863135488926</v>
+        <v>0.05062201350495438</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>42</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1879545474.963145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2956728941.409764</v>
+        <v>2543185484.504404</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1449874368321122</v>
+        <v>0.1565233468113235</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03280695778833213</v>
+        <v>0.0233827242625704</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>47</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1478364504.03289</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1006894913.542614</v>
+        <v>956837676.3738383</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1536937152553042</v>
+        <v>0.1396039080923854</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0208832356345248</v>
+        <v>0.02011524897661388</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>503447487.6531946</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2338878627.71875</v>
+        <v>2677980141.232319</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1074987328637599</v>
+        <v>0.1234493973058474</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0274344804318239</v>
+        <v>0.02960340914235304</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>22</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1169439304.067945</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1841910194.954281</v>
+        <v>2471471513.556826</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08771148474353202</v>
+        <v>0.1018433212303213</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0329215368795121</v>
+        <v>0.0425513255247499</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>920955148.4994923</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2504003973.929623</v>
+        <v>3713948287.362514</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09089898185442327</v>
+        <v>0.1355938011458497</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04274567277286832</v>
+        <v>0.04636951659031968</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>40</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1252002078.161825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1318427949.293234</v>
+        <v>971055588.9450341</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1297860191176305</v>
+        <v>0.1632855166913519</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03721701622935043</v>
+        <v>0.03416274004161844</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>659213991.1361707</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2744921371.478316</v>
+        <v>4017217821.876086</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1396950866667016</v>
+        <v>0.1069592944384799</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03621083640248127</v>
+        <v>0.02686915080600726</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>42</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1372460738.10716</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1193264348.142391</v>
+        <v>1150658282.733413</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1092769253964354</v>
+        <v>0.1169019503695363</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02320497223186946</v>
+        <v>0.02597533252017899</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>596632193.5552983</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1202362622.264955</v>
+        <v>1032038357.430758</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1122938374772442</v>
+        <v>0.1143021830255137</v>
       </c>
       <c r="G26" t="n">
-        <v>0.027247233863856</v>
+        <v>0.0281237159803302</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>601181332.7096158</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3475151377.795636</v>
+        <v>4728972333.979492</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1164127985904942</v>
+        <v>0.1527647140322613</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01917314856373391</v>
+        <v>0.01961434388576462</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1737575725.076851</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2449242779.834921</v>
+        <v>3177640013.272539</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1099692346418457</v>
+        <v>0.1051388402211971</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03535505865485789</v>
+        <v>0.04354511539011743</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>46</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1224621353.28214</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5020356883.342397</v>
+        <v>4816225179.216794</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1488885748425758</v>
+        <v>0.1232463178338352</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03800530793674735</v>
+        <v>0.03401139994128163</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>64</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2510178387.82184</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1615482631.532694</v>
+        <v>2312817260.507341</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1160408798713345</v>
+        <v>0.1270006510434565</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03447037022934982</v>
+        <v>0.03376465026804815</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>807741309.3728009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>998286637.8849244</v>
+        <v>1484875378.480411</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1048118876897173</v>
+        <v>0.08980763627589809</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03280836678443701</v>
+        <v>0.04273375228186209</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>499143317.8389526</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1289468631.392594</v>
+        <v>1145235330.41429</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1037886191054094</v>
+        <v>0.07955945686768652</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02945881020137621</v>
+        <v>0.02667423602862887</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>644734340.41273</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3082357884.973457</v>
+        <v>1928371005.344829</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1563952659039235</v>
+        <v>0.1740186581253821</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04467821286014381</v>
+        <v>0.05531928244910808</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>43</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1541178931.054914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1345559628.909575</v>
+        <v>957169819.9544003</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1211933816062725</v>
+        <v>0.07345630227902225</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02664364787178823</v>
+        <v>0.02681669801586734</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>672779795.5988979</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1082633186.598682</v>
+        <v>1165820560.049291</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0863266619679003</v>
+        <v>0.07639918559426905</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02829258163867889</v>
+        <v>0.03177152483909025</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>541316593.7234912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2011632835.263992</v>
+        <v>2100792334.157889</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1174228727951296</v>
+        <v>0.1738788891857192</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02256030611370193</v>
+        <v>0.01941795117452841</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>36</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1005816478.70467</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2543094790.698179</v>
+        <v>2221934330.961345</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08948003375585956</v>
+        <v>0.08903108830476113</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03422496164247122</v>
+        <v>0.03156894032709649</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>39</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1271547497.293298</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2096694408.060646</v>
+        <v>1502911153.346071</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09025906736720563</v>
+        <v>0.1116171520652783</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0335579349350786</v>
+        <v>0.03337617305637014</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1048347168.960478</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1709090155.528202</v>
+        <v>1705920652.308368</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1475722670396779</v>
+        <v>0.1704476781402628</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02056141936615312</v>
+        <v>0.0267891064449845</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>854545116.4127765</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1287397944.350841</v>
+        <v>1316334025.750067</v>
       </c>
       <c r="F40" t="n">
-        <v>0.127220244727425</v>
+        <v>0.1040086745985611</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05033006302725903</v>
+        <v>0.06020679569935446</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>643698991.5505636</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1772769320.204935</v>
+        <v>2432188661.825778</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1424600593472763</v>
+        <v>0.1363477832825065</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04146050282204567</v>
+        <v>0.04410500758361115</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>35</v>
-      </c>
-      <c r="J41" t="n">
-        <v>886384756.5644643</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3361447409.933251</v>
+        <v>3085206893.957305</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1236724577704145</v>
+        <v>0.1068050695763441</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04150339320692807</v>
+        <v>0.04332129415700166</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>48</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1680723690.236083</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1928691277.920897</v>
+        <v>1927752911.518959</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1687179117654786</v>
+        <v>0.1370861581421526</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01565958847504502</v>
+        <v>0.02206297660021086</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>48</v>
-      </c>
-      <c r="J43" t="n">
-        <v>964345745.0266471</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1679407690.808803</v>
+        <v>1562320398.960566</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09641950723476699</v>
+        <v>0.09561014098506461</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02405810528899904</v>
+        <v>0.03245385179226952</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>839703887.7298226</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2507646919.452767</v>
+        <v>1977132685.307384</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1402298293995849</v>
+        <v>0.1477359129985969</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05608234835395821</v>
+        <v>0.05542540847563369</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1253823501.689647</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3880056536.128778</v>
+        <v>5582677446.224298</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1468658250892187</v>
+        <v>0.1670334012269405</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05056264041502029</v>
+        <v>0.04127742307422217</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>51</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1940028230.720487</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4145687143.886335</v>
+        <v>5055981443.538686</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1881362245759162</v>
+        <v>0.1569651503319822</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03887073197002062</v>
+        <v>0.04626074448004342</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>38</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2072843579.285631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4371268449.517646</v>
+        <v>3109521553.895807</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07254305839911929</v>
+        <v>0.1053672634853344</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03371101736760677</v>
+        <v>0.03399221774106981</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>49</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2185634237.510453</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1979876746.240292</v>
+        <v>1590992646.088651</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1753133859863844</v>
+        <v>0.1588614116971253</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0422352615953303</v>
+        <v>0.0401980571363831</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>989938330.490051</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3590657556.161676</v>
+        <v>3015882346.202818</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1531504056025486</v>
+        <v>0.1249734646510035</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05057596310082811</v>
+        <v>0.04004706654857135</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>49</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1795328795.851888</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1204369819.674493</v>
+        <v>1180772752.087214</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1665922624122058</v>
+        <v>0.1496330971387501</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03914505452650653</v>
+        <v>0.046333110448598</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>602184960.6213956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4775858373.688104</v>
+        <v>4733051137.503448</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1186662975010127</v>
+        <v>0.1169083424031631</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04033848404814913</v>
+        <v>0.05356910948261991</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>59</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2387929197.618839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2333181256.55019</v>
+        <v>3337887055.9217</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1592762425622594</v>
+        <v>0.1621103671209209</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02675327723127355</v>
+        <v>0.02197652195507735</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>40</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1166590706.722205</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3232542778.284113</v>
+        <v>3189450418.540764</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1457521847095559</v>
+        <v>0.15965226557129</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04597556102974933</v>
+        <v>0.03451016530934398</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>49</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1616271392.891339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4949435249.096296</v>
+        <v>3103761379.299954</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1369906304612022</v>
+        <v>0.161501708920087</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02471836311347238</v>
+        <v>0.02665154012934639</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2474717641.321966</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1711417037.139332</v>
+        <v>1485457540.711747</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09920985346013127</v>
+        <v>0.1326968069180101</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03508251083704286</v>
+        <v>0.05709817164235959</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>855708529.4818907</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4394423618.525578</v>
+        <v>2987142850.879145</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1199527004624514</v>
+        <v>0.1131455229409605</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02513837849241641</v>
+        <v>0.02753222347007679</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>45</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2197211930.694886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1386018254.621035</v>
+        <v>1519596201.978553</v>
       </c>
       <c r="F58" t="n">
-        <v>0.192590547556735</v>
+        <v>0.1776001395137009</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03328818610168593</v>
+        <v>0.03482640552656415</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>693009168.8053753</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4368464497.097069</v>
+        <v>3815361360.529832</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07900848064963725</v>
+        <v>0.09986900302609011</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04518589640328531</v>
+        <v>0.04344837573560357</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2184232206.690063</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3392214961.641386</v>
+        <v>2887838288.258427</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1886181962322221</v>
+        <v>0.1939271932409388</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02436115852616141</v>
+        <v>0.02603556212689309</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>45</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1696107592.263364</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2701926696.042496</v>
+        <v>3394406832.525603</v>
       </c>
       <c r="F61" t="n">
-        <v>0.122348159023094</v>
+        <v>0.1417435956690967</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02028762606754547</v>
+        <v>0.03123288394097824</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>50</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1350963356.557884</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1710912417.444972</v>
+        <v>1543382263.109193</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1818487954104009</v>
+        <v>0.1806531723017009</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03523028326756986</v>
+        <v>0.03691785156216235</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>855456223.3958515</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5021338695.275793</v>
+        <v>3376986661.962823</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06999949306258982</v>
+        <v>0.09313425781936836</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04258545695642277</v>
+        <v>0.0316989882928276</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>41</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2510669364.425725</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4855088662.986248</v>
+        <v>4514327620.33253</v>
       </c>
       <c r="F64" t="n">
-        <v>0.171126019173307</v>
+        <v>0.1436305505024011</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03058852658999117</v>
+        <v>0.02653977692080942</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>44</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2427544427.460206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5667641690.674517</v>
+        <v>5548657537.202489</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1378212729169584</v>
+        <v>0.1169434860922725</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02595952838799849</v>
+        <v>0.02556398053863395</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>52</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2833820764.381376</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3496328582.98051</v>
+        <v>4105612219.884044</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1187843629275683</v>
+        <v>0.1476381999035716</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04006885080020375</v>
+        <v>0.03196242486333725</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>42</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1748164238.044191</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3448338918.223937</v>
+        <v>2791346978.473079</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06950865748970056</v>
+        <v>0.1006858928432813</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03921474202896263</v>
+        <v>0.04655204930126692</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>47</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1724169439.351638</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4363987441.587595</v>
+        <v>5006535801.815371</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1356328583044171</v>
+        <v>0.1484685067627747</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04301271082701133</v>
+        <v>0.03303686920401482</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>45</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2181993738.603538</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1876369624.702212</v>
+        <v>2382788169.275162</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1233026704215588</v>
+        <v>0.1817666683596897</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05761706815900029</v>
+        <v>0.04299670448301635</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>938184801.3053988</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3008524838.358799</v>
+        <v>3627278540.871343</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06656744797500916</v>
+        <v>0.07269743675534672</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03522861047549553</v>
+        <v>0.04729999215271318</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>41</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1504262396.662982</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4534040304.381042</v>
+        <v>4050525505.934864</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1262347831308613</v>
+        <v>0.1399723099361368</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02117604768072322</v>
+        <v>0.03323069051512755</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>52</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2267020223.088336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2244626109.670611</v>
+        <v>1502119729.537729</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08882650744119579</v>
+        <v>0.07126724247045614</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04550901206671044</v>
+        <v>0.03647816047120777</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1122312961.656574</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2547782267.515176</v>
+        <v>3560029797.118876</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07968867527953985</v>
+        <v>0.08108399120522572</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03996580840253221</v>
+        <v>0.03865838669015283</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>55</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1273891171.111184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2841472638.93531</v>
+        <v>3546870091.532551</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1846017269396377</v>
+        <v>0.11456490647303</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03395336728407712</v>
+        <v>0.03292392627413504</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>49</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1420736398.524592</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2308965496.026401</v>
+        <v>1606052563.826495</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1673892309001893</v>
+        <v>0.1241126065146076</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03385918905729236</v>
+        <v>0.02549217564457576</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1154482683.141423</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4844261353.167844</v>
+        <v>3894432154.843124</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1247340921901834</v>
+        <v>0.1117262738735079</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02138211309784489</v>
+        <v>0.02527013024711077</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>31</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2422130696.677614</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2140170598.006986</v>
+        <v>1861170119.356924</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1461148846759771</v>
+        <v>0.1477270597362392</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02509087526533436</v>
+        <v>0.03137465154942608</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1070085381.212538</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3055441774.113411</v>
+        <v>4240170724.586837</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08281714738948762</v>
+        <v>0.08246631595789662</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04323662703912017</v>
+        <v>0.05547684940611049</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>50</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1527720920.317993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1835255659.066704</v>
+        <v>1598226399.188617</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1402490022996348</v>
+        <v>0.1236655848926687</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03747484988988031</v>
+        <v>0.0406647835089159</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>917627922.3393048</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3492360420.4628</v>
+        <v>3603320402.23228</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08739439100209292</v>
+        <v>0.1041093748828172</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03262159573712098</v>
+        <v>0.02678043232162352</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>30</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1746180184.41959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3262592661.268614</v>
+        <v>5209979612.084302</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08446082680886514</v>
+        <v>0.1094383170639367</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02228301850672495</v>
+        <v>0.02254431367848714</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1631296266.377685</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3431159554.213723</v>
+        <v>5327353856.109049</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1430286453473208</v>
+        <v>0.1858905819719859</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02100494459566403</v>
+        <v>0.02381464650209004</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1715579848.539997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2490087431.922938</v>
+        <v>2105533445.017238</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1131223266685798</v>
+        <v>0.139692326388483</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03547952710098366</v>
+        <v>0.03917982785430517</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1245043762.256818</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1570198676.528545</v>
+        <v>2094735914.254396</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1105834114338735</v>
+        <v>0.07414998163727277</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04499967676293197</v>
+        <v>0.03448896569026689</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>785099406.2023001</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3575372284.384663</v>
+        <v>3596155746.91127</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1599684352760825</v>
+        <v>0.159934148804199</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04221746648122444</v>
+        <v>0.05556426316115212</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>54</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1787686265.811511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2745838028.701406</v>
+        <v>2278384289.925195</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1403674424605598</v>
+        <v>0.1289052333466165</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02213717509190313</v>
+        <v>0.02176247248605415</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1372919145.65697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1272542916.728104</v>
+        <v>1261595399.437518</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1867037429386442</v>
+        <v>0.1787718522607034</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02707732865290037</v>
+        <v>0.03657700115656889</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>636271532.4981152</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2961951812.073377</v>
+        <v>2615857796.675595</v>
       </c>
       <c r="F88" t="n">
-        <v>0.135520352493534</v>
+        <v>0.1635258502146316</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03876306687490285</v>
+        <v>0.03730538293546153</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>56</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1480975932.680322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3018587746.875182</v>
+        <v>2321293028.2803</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1343034579688505</v>
+        <v>0.1160384709487049</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02684603086672197</v>
+        <v>0.03193617757046554</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>49</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1509293910.13574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1535374605.23384</v>
+        <v>1418971848.508424</v>
       </c>
       <c r="F90" t="n">
-        <v>0.127102354619987</v>
+        <v>0.1174471449811353</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05018511478497601</v>
+        <v>0.05512861150519142</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>767687287.7830956</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1329366002.249937</v>
+        <v>2090257629.072834</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1455920480724291</v>
+        <v>0.1888127811060107</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05238418857558087</v>
+        <v>0.03973109954906756</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>664683062.751593</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2543004653.445228</v>
+        <v>2542756964.875397</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09913200474096819</v>
+        <v>0.08221880157152672</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03407382674596604</v>
+        <v>0.04392812069549538</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>33</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1271502313.875119</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3688815662.90587</v>
+        <v>4230317147.660951</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0951338799701632</v>
+        <v>0.12467320959564</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05460338304612997</v>
+        <v>0.05157133900052685</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>45</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1844407852.161081</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2215712269.668031</v>
+        <v>2184323862.011911</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1320808061029598</v>
+        <v>0.1281540755383328</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03348048289069799</v>
+        <v>0.03965390995837812</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1107856161.274475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2957452566.867432</v>
+        <v>2106738339.039562</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1234150166768004</v>
+        <v>0.1241209678439922</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03262459346281692</v>
+        <v>0.03535701097663629</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>34</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1478726286.216862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2284410124.293469</v>
+        <v>1477727283.778351</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1018890293077706</v>
+        <v>0.09075097673360866</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04655966924215438</v>
+        <v>0.03248174467018732</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1142205018.701531</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5251532818.475439</v>
+        <v>4695945995.438918</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1336714261126782</v>
+        <v>0.1454447454687115</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01764577901178552</v>
+        <v>0.02499498340096117</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>47</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2625766566.215862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3174264890.692569</v>
+        <v>3725021461.040162</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1103711158593157</v>
+        <v>0.1138912553592144</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02159975949374799</v>
+        <v>0.02472039045532003</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>38</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1587132441.813225</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2712139632.380918</v>
+        <v>3120002660.773304</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1451518026647063</v>
+        <v>0.1033172840092752</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03325305909541169</v>
+        <v>0.02412797343944896</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>45</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1356069781.277392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3914098173.135431</v>
+        <v>4563703272.992393</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1665022980256905</v>
+        <v>0.1203712331152167</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02507713297631292</v>
+        <v>0.0250550256794819</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>44</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1957049150.34954</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2561771194.746433</v>
+        <v>3413550416.186548</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1357025597354545</v>
+        <v>0.1420483117911944</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03930774827047436</v>
+        <v>0.05726697807474816</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>59</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1280885628.513663</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_143.xlsx
+++ b/output/fit_clients/fit_round_143.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1972636295.264314</v>
+        <v>2114177089.108623</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1148688668619603</v>
+        <v>0.07572577528086746</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03364417555783715</v>
+        <v>0.03164661170168791</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2279039808.518636</v>
+        <v>2651651022.731634</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1557789234033495</v>
+        <v>0.1521499617309524</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03439267134768668</v>
+        <v>0.03169348389939015</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3313975703.417161</v>
+        <v>4120460482.906732</v>
       </c>
       <c r="F4" t="n">
-        <v>0.119978166176232</v>
+        <v>0.1658804550930309</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03443449235673499</v>
+        <v>0.02904186866245263</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3491212200.921415</v>
+        <v>3868036185.290909</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1010892636644086</v>
+        <v>0.09809547714476258</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03797260937623888</v>
+        <v>0.04010221675797303</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2550879518.749789</v>
+        <v>2066376741.460187</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1104597068667162</v>
+        <v>0.1270463667382843</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05643519747946039</v>
+        <v>0.04552284808465751</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2425484445.607966</v>
+        <v>2020446124.038592</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08160756494840264</v>
+        <v>0.0897598557864009</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03495411369057772</v>
+        <v>0.03068096720111109</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3343024372.296479</v>
+        <v>3070179584.668535</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1606867513363704</v>
+        <v>0.1670309143056538</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02964743639508094</v>
+        <v>0.02876830977908577</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1696627875.04192</v>
+        <v>2290917571.218353</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1356319399091161</v>
+        <v>0.1570128966676988</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02502393992121006</v>
+        <v>0.02923401934520611</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5061847246.06141</v>
+        <v>4107897616.436829</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1398235855672484</v>
+        <v>0.1595176479421801</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03471943488803646</v>
+        <v>0.04453920511106755</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4222931327.471071</v>
+        <v>3585583229.421334</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1170559291679187</v>
+        <v>0.1310438255583345</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04210924093881915</v>
+        <v>0.03095236438103469</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2430594145.605327</v>
+        <v>2526944940.359673</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1378213039162815</v>
+        <v>0.1440504736399226</v>
       </c>
       <c r="G12" t="n">
-        <v>0.042702963207183</v>
+        <v>0.04339560563490279</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5178927361.225799</v>
+        <v>4589285359.200948</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07673342575396096</v>
+        <v>0.08354321761620412</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02880788935794395</v>
+        <v>0.02228251644285783</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3762112203.039123</v>
+        <v>3659996488.458323</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1326451447126638</v>
+        <v>0.1775063657182272</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03112189201964699</v>
+        <v>0.04267599671412624</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1687575701.911632</v>
+        <v>1296597402.371221</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06874173966725913</v>
+        <v>0.07222561910057927</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04197487024847932</v>
+        <v>0.03394520300843981</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2549530502.248075</v>
+        <v>2869728934.17339</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07558432835146066</v>
+        <v>0.09896385716745404</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03896065064703267</v>
+        <v>0.05084093230475781</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4951460934.284485</v>
+        <v>3820404517.985267</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1210375376423747</v>
+        <v>0.1495168750692972</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05062201350495438</v>
+        <v>0.04931507389997017</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2543185484.504404</v>
+        <v>2597577706.700924</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1565233468113235</v>
+        <v>0.1603278079967568</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0233827242625704</v>
+        <v>0.0292399391242347</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>956837676.3738383</v>
+        <v>1282161432.079747</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1396039080923854</v>
+        <v>0.1371198203616812</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02011524897661388</v>
+        <v>0.02182349833358789</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2677980141.232319</v>
+        <v>2773669462.24191</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1234493973058474</v>
+        <v>0.1324388410200568</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02960340914235304</v>
+        <v>0.03081138841259811</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2471471513.556826</v>
+        <v>2040949139.930228</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1018433212303213</v>
+        <v>0.06755396229595963</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0425513255247499</v>
+        <v>0.04599796401844258</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3713948287.362514</v>
+        <v>3972695984.840933</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1355938011458497</v>
+        <v>0.09636121149474654</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04636951659031968</v>
+        <v>0.04114419188393199</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>971055588.9450341</v>
+        <v>1013991650.604536</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1632855166913519</v>
+        <v>0.1152881009248344</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03416274004161844</v>
+        <v>0.04075575464712299</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4017217821.876086</v>
+        <v>2557370630.662383</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1069592944384799</v>
+        <v>0.1501235251724228</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02686915080600726</v>
+        <v>0.02605158428621282</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1150658282.733413</v>
+        <v>898049443.9899442</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1169019503695363</v>
+        <v>0.08226110450745661</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02597533252017899</v>
+        <v>0.02645952227669433</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1032038357.430758</v>
+        <v>1092178788.374415</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1143021830255137</v>
+        <v>0.1186024656125372</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0281237159803302</v>
+        <v>0.02396474088181371</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4728972333.979492</v>
+        <v>2886116875.055512</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1527647140322613</v>
+        <v>0.0979603322389951</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01961434388576462</v>
+        <v>0.02655906846268161</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3177640013.272539</v>
+        <v>2841039413.858963</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1051388402211971</v>
+        <v>0.1355828053248564</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04354511539011743</v>
+        <v>0.04957733039783828</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4816225179.216794</v>
+        <v>5550182871.71155</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1232463178338352</v>
+        <v>0.1180195277252506</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03401139994128163</v>
+        <v>0.03781449646168546</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2312817260.507341</v>
+        <v>2054133402.7193</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1270006510434565</v>
+        <v>0.1070264117570759</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03376465026804815</v>
+        <v>0.0291808984101939</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1484875378.480411</v>
+        <v>1086358837.410428</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08980763627589809</v>
+        <v>0.091763425430834</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04273375228186209</v>
+        <v>0.03518081605899071</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1145235330.41429</v>
+        <v>1320845047.125708</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07955945686768652</v>
+        <v>0.1178485848465747</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02667423602862887</v>
+        <v>0.0312373042393697</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1928371005.344829</v>
+        <v>1910207306.67424</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1740186581253821</v>
+        <v>0.1841577393257504</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05531928244910808</v>
+        <v>0.04445957051745222</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>957169819.9544003</v>
+        <v>1453561310.843423</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07345630227902225</v>
+        <v>0.09426018329883673</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02681669801586734</v>
+        <v>0.02818997188270192</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1165820560.049291</v>
+        <v>901922795.8727579</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07639918559426905</v>
+        <v>0.0724646031307232</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03177152483909025</v>
+        <v>0.03309975492798883</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2100792334.157889</v>
+        <v>2331070184.145454</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1738788891857192</v>
+        <v>0.1326787527121196</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01941795117452841</v>
+        <v>0.02735747038567298</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2221934330.961345</v>
+        <v>2624331644.5086</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08903108830476113</v>
+        <v>0.0803782662638242</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03156894032709649</v>
+        <v>0.0259208030603668</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1502911153.346071</v>
+        <v>1527203355.558067</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1116171520652783</v>
+        <v>0.1173167186483111</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03337617305637014</v>
+        <v>0.0385080018863282</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1705920652.308368</v>
+        <v>1871059283.59823</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1704476781402628</v>
+        <v>0.1239072141696377</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0267891064449845</v>
+        <v>0.02028282192465633</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1316334025.750067</v>
+        <v>1670709839.068541</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1040086745985611</v>
+        <v>0.1366667384037421</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06020679569935446</v>
+        <v>0.05688572894585536</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2432188661.825778</v>
+        <v>2226664541.776335</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1363477832825065</v>
+        <v>0.1173265836372078</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04410500758361115</v>
+        <v>0.03086331673409062</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3085206893.957305</v>
+        <v>2948134914.944036</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1068050695763441</v>
+        <v>0.07859649448395378</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04332129415700166</v>
+        <v>0.03773989459771934</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1927752911.518959</v>
+        <v>2098762488.209737</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1370861581421526</v>
+        <v>0.1354259671709989</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02206297660021086</v>
+        <v>0.01991519193791683</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1562320398.960566</v>
+        <v>2316811982.330653</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09561014098506461</v>
+        <v>0.08940525492978843</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03245385179226952</v>
+        <v>0.02296242951494488</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1977132685.307384</v>
+        <v>2074659904.394099</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1477359129985969</v>
+        <v>0.1625695198955881</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05542540847563369</v>
+        <v>0.04657373735811677</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5582677446.224298</v>
+        <v>5715241165.158782</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1670334012269405</v>
+        <v>0.1266357919077536</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04127742307422217</v>
+        <v>0.04145737941060122</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5055981443.538686</v>
+        <v>3881625855.70538</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1569651503319822</v>
+        <v>0.1551500995731216</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04626074448004342</v>
+        <v>0.04019060520797457</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3109521553.895807</v>
+        <v>4531314137.284084</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1053672634853344</v>
+        <v>0.09772668512578048</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03399221774106981</v>
+        <v>0.02520555656023108</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1590992646.088651</v>
+        <v>1570408619.610071</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1588614116971253</v>
+        <v>0.1869663568986746</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0401980571363831</v>
+        <v>0.03019604823186322</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3015882346.202818</v>
+        <v>3671365540.486827</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1249734646510035</v>
+        <v>0.1521759003831999</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04004706654857135</v>
+        <v>0.04258735088610478</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1180772752.087214</v>
+        <v>1446316712.975065</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1496330971387501</v>
+        <v>0.1396793614629523</v>
       </c>
       <c r="G51" t="n">
-        <v>0.046333110448598</v>
+        <v>0.03517681829688568</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4733051137.503448</v>
+        <v>3790175813.581575</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1169083424031631</v>
+        <v>0.08463025457319448</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05356910948261991</v>
+        <v>0.0486773192994682</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3337887055.9217</v>
+        <v>3215984979.04192</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1621103671209209</v>
+        <v>0.1940912172493844</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02197652195507735</v>
+        <v>0.03037158575221715</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3189450418.540764</v>
+        <v>3679917490.436007</v>
       </c>
       <c r="F54" t="n">
-        <v>0.15965226557129</v>
+        <v>0.1640057862443293</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03451016530934398</v>
+        <v>0.04280925335726429</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3103761379.299954</v>
+        <v>4827663254.008617</v>
       </c>
       <c r="F55" t="n">
-        <v>0.161501708920087</v>
+        <v>0.2107102696892301</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02665154012934639</v>
+        <v>0.02706467197016563</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1485457540.711747</v>
+        <v>1430722231.313688</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1326968069180101</v>
+        <v>0.1008385810581957</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05709817164235959</v>
+        <v>0.04164772146324878</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2987142850.879145</v>
+        <v>4463144409.846859</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1131455229409605</v>
+        <v>0.1633509509428881</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02753222347007679</v>
+        <v>0.02572595792599324</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1519596201.978553</v>
+        <v>1260374168.426793</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1776001395137009</v>
+        <v>0.1462408340974968</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03482640552656415</v>
+        <v>0.03199727220449279</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3815361360.529832</v>
+        <v>4884628181.987552</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09986900302609011</v>
+        <v>0.1057694666445239</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04344837573560357</v>
+        <v>0.03940683738473783</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2887838288.258427</v>
+        <v>2736525592.953776</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1939271932409388</v>
+        <v>0.1243477683941575</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02603556212689309</v>
+        <v>0.0264120179292584</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3394406832.525603</v>
+        <v>2414124265.617222</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1417435956690967</v>
+        <v>0.1322819036953106</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03123288394097824</v>
+        <v>0.02516052635415557</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1543382263.109193</v>
+        <v>1418606602.500273</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1806531723017009</v>
+        <v>0.1754530792583197</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03691785156216235</v>
+        <v>0.04597745180406311</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3376986661.962823</v>
+        <v>5101966100.36846</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09313425781936836</v>
+        <v>0.104768191876505</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0316989882928276</v>
+        <v>0.04384905149827366</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4514327620.33253</v>
+        <v>4225659482.74888</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1436305505024011</v>
+        <v>0.1716649611677545</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02653977692080942</v>
+        <v>0.03459642158261196</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5548657537.202489</v>
+        <v>5156835384.795907</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1169434860922725</v>
+        <v>0.1724362126587322</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02556398053863395</v>
+        <v>0.02498905246781799</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4105612219.884044</v>
+        <v>5025370004.519198</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1476381999035716</v>
+        <v>0.1025290398238731</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03196242486333725</v>
+        <v>0.04152995544356831</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2791346978.473079</v>
+        <v>3308808859.080182</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1006858928432813</v>
+        <v>0.07721361314006724</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04655204930126692</v>
+        <v>0.04880717178510854</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5006535801.815371</v>
+        <v>5670188699.800529</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1484685067627747</v>
+        <v>0.09764686621389548</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03303686920401482</v>
+        <v>0.04847615385277912</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2382788169.275162</v>
+        <v>2341275230.159913</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1817666683596897</v>
+        <v>0.1260678387150033</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04299670448301635</v>
+        <v>0.04925723370024442</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3627278540.871343</v>
+        <v>3374793885.67067</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07269743675534672</v>
+        <v>0.1019474399821308</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04729999215271318</v>
+        <v>0.02997365994128857</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4050525505.934864</v>
+        <v>5181762095.457529</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1399723099361368</v>
+        <v>0.1724460833749753</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03323069051512755</v>
+        <v>0.02668104662396628</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1502119729.537729</v>
+        <v>2129741928.596996</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07126724247045614</v>
+        <v>0.09029835095113338</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03647816047120777</v>
+        <v>0.03847633040219327</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3560029797.118876</v>
+        <v>2795767989.808101</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08108399120522572</v>
+        <v>0.06782445319598492</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03865838669015283</v>
+        <v>0.03308335332616957</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3546870091.532551</v>
+        <v>3587633989.802434</v>
       </c>
       <c r="F74" t="n">
-        <v>0.11456490647303</v>
+        <v>0.1303374589303056</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03292392627413504</v>
+        <v>0.03542479573858809</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1606052563.826495</v>
+        <v>2197888408.079479</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1241126065146076</v>
+        <v>0.1646907741846484</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02549217564457576</v>
+        <v>0.03294285481032932</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3894432154.843124</v>
+        <v>3718234559.410056</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1117262738735079</v>
+        <v>0.07531712274379229</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02527013024711077</v>
+        <v>0.02148496224688472</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1861170119.356924</v>
+        <v>2158398432.247482</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1477270597362392</v>
+        <v>0.1422399805684453</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03137465154942608</v>
+        <v>0.02652317638724142</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4240170724.586837</v>
+        <v>3234143063.16127</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08246631595789662</v>
+        <v>0.09351808098663324</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05547684940611049</v>
+        <v>0.04974311367584175</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1598226399.188617</v>
+        <v>1597851308.767179</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1236655848926687</v>
+        <v>0.1651815157836594</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0406647835089159</v>
+        <v>0.03986018702954623</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3603320402.23228</v>
+        <v>4421359427.356701</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1041093748828172</v>
+        <v>0.09002201354291722</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02678043232162352</v>
+        <v>0.03313689999080579</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5209979612.084302</v>
+        <v>3535250848.333858</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1094383170639367</v>
+        <v>0.0857546277954061</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02254431367848714</v>
+        <v>0.02465707192940899</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5327353856.109049</v>
+        <v>5114168912.166636</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1858905819719859</v>
+        <v>0.2140650378621074</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02381464650209004</v>
+        <v>0.02374070394529104</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2105533445.017238</v>
+        <v>1815536596.967979</v>
       </c>
       <c r="F83" t="n">
-        <v>0.139692326388483</v>
+        <v>0.1148213534591273</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03917982785430517</v>
+        <v>0.03352376408088582</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2094735914.254396</v>
+        <v>1598668192.069411</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07414998163727277</v>
+        <v>0.1127469849266787</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03448896569026689</v>
+        <v>0.04438239885731851</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3596155746.91127</v>
+        <v>3500609720.970473</v>
       </c>
       <c r="F85" t="n">
-        <v>0.159934148804199</v>
+        <v>0.1723331040277716</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05556426316115212</v>
+        <v>0.03690597265581109</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2278384289.925195</v>
+        <v>1846797286.616594</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1289052333466165</v>
+        <v>0.1695812932423374</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02176247248605415</v>
+        <v>0.0236198799707413</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1261595399.437518</v>
+        <v>1459008245.193104</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1787718522607034</v>
+        <v>0.1640395139858847</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03657700115656889</v>
+        <v>0.04134019455668725</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2615857796.675595</v>
+        <v>3678490971.942615</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1635258502146316</v>
+        <v>0.1131833015496619</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03730538293546153</v>
+        <v>0.03910350324142078</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2321293028.2803</v>
+        <v>2342138173.735109</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1160384709487049</v>
+        <v>0.1267252500422045</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03193617757046554</v>
+        <v>0.02871303038012997</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1418971848.508424</v>
+        <v>1972614727.254625</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1174471449811353</v>
+        <v>0.09104426342105822</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05512861150519142</v>
+        <v>0.04720628745168791</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2090257629.072834</v>
+        <v>1955422447.005529</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1888127811060107</v>
+        <v>0.1357399448888694</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03973109954906756</v>
+        <v>0.0609710565579703</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2542756964.875397</v>
+        <v>2447088286.324087</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08221880157152672</v>
+        <v>0.0999205291121697</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04392812069549538</v>
+        <v>0.04242894952390824</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4230317147.660951</v>
+        <v>4092882375.768162</v>
       </c>
       <c r="F93" t="n">
-        <v>0.12467320959564</v>
+        <v>0.09334568890892365</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05157133900052685</v>
+        <v>0.03498844864050659</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2184323862.011911</v>
+        <v>1979042438.623364</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1281540755383328</v>
+        <v>0.1147310305121661</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03965390995837812</v>
+        <v>0.03200000698320355</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2106738339.039562</v>
+        <v>3202278609.109992</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1241209678439922</v>
+        <v>0.0930987188795499</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03535701097663629</v>
+        <v>0.04834042134873458</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1477727283.778351</v>
+        <v>1965579399.141664</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09075097673360866</v>
+        <v>0.1180932066795662</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03248174467018732</v>
+        <v>0.04336959868438151</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4695945995.438918</v>
+        <v>4831382091.121819</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1454447454687115</v>
+        <v>0.1546654099816849</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02499498340096117</v>
+        <v>0.02072714520669472</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3725021461.040162</v>
+        <v>2985345428.161396</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1138912553592144</v>
+        <v>0.1229433981754586</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02472039045532003</v>
+        <v>0.02359174506016154</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3120002660.773304</v>
+        <v>2304882032.445481</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1033172840092752</v>
+        <v>0.1115527114887603</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02412797343944896</v>
+        <v>0.03303913203061172</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4563703272.992393</v>
+        <v>4360433420.735568</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1203712331152167</v>
+        <v>0.1652483457964204</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0250550256794819</v>
+        <v>0.02753204283314547</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3413550416.186548</v>
+        <v>2213686251.355165</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1420483117911944</v>
+        <v>0.1541374541338073</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05726697807474816</v>
+        <v>0.03521717957472847</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_143.xlsx
+++ b/output/fit_clients/fit_round_143.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2114177089.108623</v>
+        <v>2268605716.060847</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07572577528086746</v>
+        <v>0.07073734488027712</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03164661170168791</v>
+        <v>0.02767152050370437</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2651651022.731634</v>
+        <v>2546428825.188419</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1521499617309524</v>
+        <v>0.1571954664681764</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03169348389939015</v>
+        <v>0.04852060664777579</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4120460482.906732</v>
+        <v>4391196850.96653</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1658804550930309</v>
+        <v>0.1639739990337737</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02904186866245263</v>
+        <v>0.03529723479937746</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>82</v>
+      </c>
+      <c r="J4" t="n">
+        <v>142</v>
+      </c>
+      <c r="K4" t="n">
+        <v>140.084595297489</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3868036185.290909</v>
+        <v>2975640663.889948</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09809547714476258</v>
+        <v>0.07215284099435336</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04010221675797303</v>
+        <v>0.03114848388521711</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>60</v>
+      </c>
+      <c r="J5" t="n">
+        <v>141</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2066376741.460187</v>
+        <v>2676175154.780494</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1270463667382843</v>
+        <v>0.1372495037357786</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04552284808465751</v>
+        <v>0.03850728792993501</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2020446124.038592</v>
+        <v>2753183229.33585</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0897598557864009</v>
+        <v>0.1005690747337471</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03068096720111109</v>
+        <v>0.03009982888298464</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3070179584.668535</v>
+        <v>2922942135.607747</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1670309143056538</v>
+        <v>0.1525614860685767</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02876830977908577</v>
+        <v>0.02150248378739836</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>42</v>
+      </c>
+      <c r="J8" t="n">
+        <v>141</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2290917571.218353</v>
+        <v>2277878947.092895</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1570128966676988</v>
+        <v>0.1527526238527203</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02923401934520611</v>
+        <v>0.03374311600909664</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4107897616.436829</v>
+        <v>5113701053.684931</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1595176479421801</v>
+        <v>0.1483338925890287</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04453920511106755</v>
+        <v>0.03715637802105744</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>131</v>
+      </c>
+      <c r="J10" t="n">
+        <v>143</v>
+      </c>
+      <c r="K10" t="n">
+        <v>155.3110159622759</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3585583229.421334</v>
+        <v>2633111372.339952</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1310438255583345</v>
+        <v>0.177342310057184</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03095236438103469</v>
+        <v>0.03743285047118581</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>62</v>
+      </c>
+      <c r="J11" t="n">
+        <v>142</v>
+      </c>
+      <c r="K11" t="n">
+        <v>65.07823646864618</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2526944940.359673</v>
+        <v>2212288207.356225</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1440504736399226</v>
+        <v>0.1346297964967029</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04339560563490279</v>
+        <v>0.04742006874429028</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4589285359.200948</v>
+        <v>3882703352.960755</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08354321761620412</v>
+        <v>0.08494159284737485</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02228251644285783</v>
+        <v>0.02598818207257527</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>69</v>
+      </c>
+      <c r="J13" t="n">
+        <v>143</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3659996488.458323</v>
+        <v>2612266304.260336</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1775063657182272</v>
+        <v>0.1506506944488537</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04267599671412624</v>
+        <v>0.03973041041925417</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>139</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1296597402.371221</v>
+        <v>1614556434.934361</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07222561910057927</v>
+        <v>0.07346076578215761</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03394520300843981</v>
+        <v>0.03846262736493176</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2869728934.17339</v>
+        <v>2654967832.074897</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09896385716745404</v>
+        <v>0.08027243318635759</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05084093230475781</v>
+        <v>0.05045738090194356</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3820404517.985267</v>
+        <v>5076494904.185991</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1495168750692972</v>
+        <v>0.1684828386470561</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04931507389997017</v>
+        <v>0.04435456585247057</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>69</v>
+      </c>
+      <c r="J17" t="n">
+        <v>142</v>
+      </c>
+      <c r="K17" t="n">
+        <v>127.6543268840833</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2597577706.700924</v>
+        <v>3881643876.513288</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1603278079967568</v>
+        <v>0.1544077720243677</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0292399391242347</v>
+        <v>0.03448231232189947</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>36</v>
+      </c>
+      <c r="J18" t="n">
+        <v>143</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1282161432.079747</v>
+        <v>1089444534.202538</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1371198203616812</v>
+        <v>0.1283332182667648</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02182349833358789</v>
+        <v>0.02358222742047363</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2773669462.24191</v>
+        <v>2671685630.106179</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1324388410200568</v>
+        <v>0.1442635592317835</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03081138841259811</v>
+        <v>0.02097505697898329</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2040949139.930228</v>
+        <v>2432489471.695688</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06755396229595963</v>
+        <v>0.1021471551494907</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04599796401844258</v>
+        <v>0.03773728823409751</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3972695984.840933</v>
+        <v>3270134613.887523</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09636121149474654</v>
+        <v>0.1240289215813265</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04114419188393199</v>
+        <v>0.04906132614429966</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>37</v>
+      </c>
+      <c r="J22" t="n">
+        <v>142</v>
+      </c>
+      <c r="K22" t="n">
+        <v>84.04749180816825</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1013991650.604536</v>
+        <v>1038431653.538841</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1152881009248344</v>
+        <v>0.1400532453629643</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04075575464712299</v>
+        <v>0.05467096312117185</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2557370630.662383</v>
+        <v>4036498776.967041</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1501235251724228</v>
+        <v>0.1212146998474322</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02605158428621282</v>
+        <v>0.02955307463016875</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>42</v>
+      </c>
+      <c r="J24" t="n">
+        <v>142</v>
+      </c>
+      <c r="K24" t="n">
+        <v>129.1164317544628</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>898049443.9899442</v>
+        <v>1306849289.560829</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08226110450745661</v>
+        <v>0.07822588865887697</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02645952227669433</v>
+        <v>0.02706193120054819</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1092178788.374415</v>
+        <v>1423161349.762033</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1186024656125372</v>
+        <v>0.1161372164164992</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02396474088181371</v>
+        <v>0.02982596486110983</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2886116875.055512</v>
+        <v>3442954048.28813</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0979603322389951</v>
+        <v>0.1062792110514122</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02655906846268161</v>
+        <v>0.02137428201665355</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>56</v>
+      </c>
+      <c r="J27" t="n">
+        <v>143</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2841039413.858963</v>
+        <v>3235159231.515086</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1355828053248564</v>
+        <v>0.1176165127079983</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04957733039783828</v>
+        <v>0.03114368902351649</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5550182871.71155</v>
+        <v>5100141491.846064</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1180195277252506</v>
+        <v>0.1346749282810931</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03781449646168546</v>
+        <v>0.03636349399266838</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>132</v>
+      </c>
+      <c r="J29" t="n">
+        <v>143</v>
+      </c>
+      <c r="K29" t="n">
+        <v>166.8931131749094</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2054133402.7193</v>
+        <v>2155410949.895796</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1070264117570759</v>
+        <v>0.09642479629754336</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0291808984101939</v>
+        <v>0.03887490648948635</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1086358837.410428</v>
+        <v>1009586879.176374</v>
       </c>
       <c r="F31" t="n">
-        <v>0.091763425430834</v>
+        <v>0.06851743071418728</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03518081605899071</v>
+        <v>0.04268481932461213</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1320845047.125708</v>
+        <v>1376237636.745253</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1178485848465747</v>
+        <v>0.0982949670817873</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0312373042393697</v>
+        <v>0.03286382215439231</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1910207306.67424</v>
+        <v>2811267699.672243</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1841577393257504</v>
+        <v>0.1441856308534055</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04445957051745222</v>
+        <v>0.03825231566030912</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1453561310.843423</v>
+        <v>1430603416.730172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09426018329883673</v>
+        <v>0.07834200571486762</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02818997188270192</v>
+        <v>0.01902852205235381</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>901922795.8727579</v>
+        <v>1171215569.552219</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0724646031307232</v>
+        <v>0.08703322735815512</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03309975492798883</v>
+        <v>0.03595870834900734</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2331070184.145454</v>
+        <v>1996550150.293415</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1326787527121196</v>
+        <v>0.1763037682931424</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02735747038567298</v>
+        <v>0.02464320997307904</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2624331644.5086</v>
+        <v>1832704527.319648</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0803782662638242</v>
+        <v>0.08807183153128582</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0259208030603668</v>
+        <v>0.03831108131889847</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1527203355.558067</v>
+        <v>1705462011.690085</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1173167186483111</v>
+        <v>0.08441705679418916</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0385080018863282</v>
+        <v>0.0273300594993711</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1871059283.59823</v>
+        <v>1690153802.157202</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1239072141696377</v>
+        <v>0.1854963797000239</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02028282192465633</v>
+        <v>0.02298458844735648</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1670709839.068541</v>
+        <v>1361092745.496489</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1366667384037421</v>
+        <v>0.1151454721577908</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05688572894585536</v>
+        <v>0.04462292060615158</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2226664541.776335</v>
+        <v>2552535420.813019</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1173265836372078</v>
+        <v>0.1227596295269253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03086331673409062</v>
+        <v>0.0310418586872025</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2948134914.944036</v>
+        <v>3385955900.633132</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07859649448395378</v>
+        <v>0.1220213273581819</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03773989459771934</v>
+        <v>0.04600227404829107</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>53</v>
+      </c>
+      <c r="J42" t="n">
+        <v>142</v>
+      </c>
+      <c r="K42" t="n">
+        <v>101.4848567986146</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2098762488.209737</v>
+        <v>2216801089.882068</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1354259671709989</v>
+        <v>0.1599288254513083</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01991519193791683</v>
+        <v>0.02047816901269913</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2316811982.330653</v>
+        <v>1548977105.506056</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08940525492978843</v>
+        <v>0.07909914244074194</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02296242951494488</v>
+        <v>0.02788139833234735</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2074659904.394099</v>
+        <v>2138123282.581594</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1625695198955881</v>
+        <v>0.158699848136616</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04657373735811677</v>
+        <v>0.05260277613182883</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2057,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5715241165.158782</v>
+        <v>4376504599.282298</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1266357919077536</v>
+        <v>0.1638080686383791</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04145737941060122</v>
+        <v>0.04624904777803261</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>81</v>
+      </c>
+      <c r="J46" t="n">
+        <v>142</v>
+      </c>
+      <c r="K46" t="n">
+        <v>143.3040337923938</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3881625855.70538</v>
+        <v>3677048792.980768</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1551500995731216</v>
+        <v>0.1419636913126314</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04019060520797457</v>
+        <v>0.03760483643531848</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>63</v>
+      </c>
+      <c r="J47" t="n">
+        <v>143</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4531314137.284084</v>
+        <v>2854916161.928996</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09772668512578048</v>
+        <v>0.1077659992132636</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02520555656023108</v>
+        <v>0.02359518798043429</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>60</v>
+      </c>
+      <c r="J48" t="n">
+        <v>142</v>
+      </c>
+      <c r="K48" t="n">
+        <v>71.99871254190927</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1570408619.610071</v>
+        <v>1613909700.670256</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1869663568986746</v>
+        <v>0.1251232150714882</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03019604823186322</v>
+        <v>0.04001086322326622</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3671365540.486827</v>
+        <v>2734156212.219759</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1521759003831999</v>
+        <v>0.1734530946935318</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04258735088610478</v>
+        <v>0.03963014212333516</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>48</v>
+      </c>
+      <c r="J50" t="n">
+        <v>139</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1446316712.975065</v>
+        <v>1346930976.916644</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1396793614629523</v>
+        <v>0.1886982088306306</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03517681829688568</v>
+        <v>0.03899285610255538</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3790175813.581575</v>
+        <v>5061011599.154939</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08463025457319448</v>
+        <v>0.09949402850160947</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0486773192994682</v>
+        <v>0.04055951409985523</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>107</v>
+      </c>
+      <c r="J52" t="n">
+        <v>143</v>
+      </c>
+      <c r="K52" t="n">
+        <v>143.414410763711</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2308,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3215984979.04192</v>
+        <v>3269483908.165353</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1940912172493844</v>
+        <v>0.1918609114582533</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03037158575221715</v>
+        <v>0.02605078864089744</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>17</v>
+      </c>
+      <c r="J53" t="n">
+        <v>137</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2343,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3679917490.436007</v>
+        <v>4149733049.405459</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1640057862443293</v>
+        <v>0.1107143071818574</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04280925335726429</v>
+        <v>0.04670717424028499</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>66</v>
+      </c>
+      <c r="J54" t="n">
+        <v>143</v>
+      </c>
+      <c r="K54" t="n">
+        <v>145.1964011872685</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2374,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4827663254.008617</v>
+        <v>3654135319.598349</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2107102696892301</v>
+        <v>0.1959140936107681</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02706467197016563</v>
+        <v>0.02084620560922351</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>66</v>
+      </c>
+      <c r="J55" t="n">
+        <v>142</v>
+      </c>
+      <c r="K55" t="n">
+        <v>109.1983605294281</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1430722231.313688</v>
+        <v>1213301622.349372</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1008385810581957</v>
+        <v>0.1207112190099837</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04164772146324878</v>
+        <v>0.04087451225291738</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2446,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4463144409.846859</v>
+        <v>4415174679.794109</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1633509509428881</v>
+        <v>0.1761133330758377</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02572595792599324</v>
+        <v>0.01956939334596516</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>57</v>
+      </c>
+      <c r="J57" t="n">
+        <v>143</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1260374168.426793</v>
+        <v>1413044038.083932</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1462408340974968</v>
+        <v>0.1915131045337643</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03199727220449279</v>
+        <v>0.02486312997448231</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2522,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4884628181.987552</v>
+        <v>3512031154.796815</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1057694666445239</v>
+        <v>0.1306343741241578</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03940683738473783</v>
+        <v>0.03381442773596222</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>69</v>
+      </c>
+      <c r="J59" t="n">
+        <v>143</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2736525592.953776</v>
+        <v>2601346992.839556</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1243477683941575</v>
+        <v>0.1576082774665682</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0264120179292584</v>
+        <v>0.032004323925832</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>22</v>
+      </c>
+      <c r="J60" t="n">
+        <v>137</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2414124265.617222</v>
+        <v>3207171812.785179</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1322819036953106</v>
+        <v>0.1617334191817703</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02516052635415557</v>
+        <v>0.02318654284104151</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1418606602.500273</v>
+        <v>1921109306.51811</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1754530792583197</v>
+        <v>0.1718039895639331</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04597745180406311</v>
+        <v>0.0419998991146952</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5101966100.36846</v>
+        <v>3710505320.04594</v>
       </c>
       <c r="F63" t="n">
-        <v>0.104768191876505</v>
+        <v>0.09047539017074915</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04384905149827366</v>
+        <v>0.03624934322271779</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>70</v>
+      </c>
+      <c r="J63" t="n">
+        <v>142</v>
+      </c>
+      <c r="K63" t="n">
+        <v>108.8856395796504</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2693,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4225659482.74888</v>
+        <v>5120508741.504494</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1716649611677545</v>
+        <v>0.1632134556889407</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03459642158261196</v>
+        <v>0.02165977969152415</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>71</v>
+      </c>
+      <c r="J64" t="n">
+        <v>142</v>
+      </c>
+      <c r="K64" t="n">
+        <v>135.8912361134159</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2736,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5156835384.795907</v>
+        <v>4937927005.919353</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1724362126587322</v>
+        <v>0.1065018338608813</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02498905246781799</v>
+        <v>0.02294907838322647</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>119</v>
+      </c>
+      <c r="J65" t="n">
+        <v>143</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5025370004.519198</v>
+        <v>3853597845.491092</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1025290398238731</v>
+        <v>0.135840826696309</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04152995544356831</v>
+        <v>0.03687656922658261</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>70</v>
+      </c>
+      <c r="J66" t="n">
+        <v>143</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3308808859.080182</v>
+        <v>2837196303.970497</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07721361314006724</v>
+        <v>0.09905923742686851</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04880717178510854</v>
+        <v>0.03920179451221199</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5670188699.800529</v>
+        <v>5548222265.517645</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09764686621389548</v>
+        <v>0.1581752650308073</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04847615385277912</v>
+        <v>0.03308397813913796</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>72</v>
+      </c>
+      <c r="J68" t="n">
+        <v>142</v>
+      </c>
+      <c r="K68" t="n">
+        <v>132.589962668228</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2341275230.159913</v>
+        <v>2072026990.943899</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1260678387150033</v>
+        <v>0.1729980506392886</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04925723370024442</v>
+        <v>0.05368105866537166</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2913,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3374793885.67067</v>
+        <v>2901609483.614256</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1019474399821308</v>
+        <v>0.06550429498837701</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02997365994128857</v>
+        <v>0.03512964406579205</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>18</v>
+      </c>
+      <c r="J70" t="n">
+        <v>140</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5181762095.457529</v>
+        <v>4536540416.644048</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1724460833749753</v>
+        <v>0.1772687721298415</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02668104662396628</v>
+        <v>0.02130048968090685</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>114</v>
+      </c>
+      <c r="J71" t="n">
+        <v>143</v>
+      </c>
+      <c r="K71" t="n">
+        <v>144.4592997921703</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2985,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2129741928.596996</v>
+        <v>1865891952.249281</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09029835095113338</v>
+        <v>0.106099462547755</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03847633040219327</v>
+        <v>0.04674905698412908</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2795767989.808101</v>
+        <v>2884208235.482917</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06782445319598492</v>
+        <v>0.06804049190362661</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03308335332616957</v>
+        <v>0.04818627321716668</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3049,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3587633989.802434</v>
+        <v>2728515796.12235</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1303374589303056</v>
+        <v>0.1565016518968823</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03542479573858809</v>
+        <v>0.03204369662316168</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>46</v>
+      </c>
+      <c r="J74" t="n">
+        <v>142</v>
+      </c>
+      <c r="K74" t="n">
+        <v>65.18125286948539</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3086,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2197888408.079479</v>
+        <v>1518953237.062272</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1646907741846484</v>
+        <v>0.134331728755474</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03294285481032932</v>
+        <v>0.03112455872639736</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3121,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3718234559.410056</v>
+        <v>4452492354.764796</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07531712274379229</v>
+        <v>0.1104784426573467</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02148496224688472</v>
+        <v>0.03101679895039703</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>65</v>
+      </c>
+      <c r="J76" t="n">
+        <v>143</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3162,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2158398432.247482</v>
+        <v>2189887313.024169</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1422399805684453</v>
+        <v>0.1622806403860151</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02652317638724142</v>
+        <v>0.02160492368043225</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3191,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3234143063.16127</v>
+        <v>3524238360.244333</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09351808098663324</v>
+        <v>0.0841791264927223</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04974311367584175</v>
+        <v>0.03584735295932026</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>70</v>
+      </c>
+      <c r="J78" t="n">
+        <v>142</v>
+      </c>
+      <c r="K78" t="n">
+        <v>111.9270277813622</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1597851308.767179</v>
+        <v>1381216248.994963</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1651815157836594</v>
+        <v>0.1760092803408575</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03986018702954623</v>
+        <v>0.02825209138020767</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3263,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4421359427.356701</v>
+        <v>5152387724.063768</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09002201354291722</v>
+        <v>0.100747891114555</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03313689999080579</v>
+        <v>0.0380922080553051</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>69</v>
+      </c>
+      <c r="J80" t="n">
+        <v>143</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3304,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3535250848.333858</v>
+        <v>3585542251.586999</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0857546277954061</v>
+        <v>0.08295715550370847</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02465707192940899</v>
+        <v>0.02224313242961251</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>65</v>
+      </c>
+      <c r="J81" t="n">
+        <v>143</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5114168912.166636</v>
+        <v>4805205979.531986</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2140650378621074</v>
+        <v>0.1496240283711962</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02374070394529104</v>
+        <v>0.02731261938013256</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>102</v>
+      </c>
+      <c r="J82" t="n">
+        <v>143</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1815536596.967979</v>
+        <v>1586294115.141701</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1148213534591273</v>
+        <v>0.1162961214349097</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03352376408088582</v>
+        <v>0.0301832009212988</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1598668192.069411</v>
+        <v>1940563276.976126</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1127469849266787</v>
+        <v>0.09651464552941548</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04438239885731851</v>
+        <v>0.03388769745863453</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3500609720.970473</v>
+        <v>3531744276.725945</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1723331040277716</v>
+        <v>0.124151457730738</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03690597265581109</v>
+        <v>0.05338108760050285</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>23</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1846797286.616594</v>
+        <v>1709828318.143484</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1695812932423374</v>
+        <v>0.1413101121736915</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0236198799707413</v>
+        <v>0.02019615386527949</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1459008245.193104</v>
+        <v>937991831.3068658</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1640395139858847</v>
+        <v>0.1452701459956497</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04134019455668725</v>
+        <v>0.03291361925006848</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3678490971.942615</v>
+        <v>2428886330.844508</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1131833015496619</v>
+        <v>0.169112952905729</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03910350324142078</v>
+        <v>0.03337462043199966</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>134</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2342138173.735109</v>
+        <v>3027976877.108283</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1267252500422045</v>
+        <v>0.125499343357012</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02871303038012997</v>
+        <v>0.03027397923545356</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1972614727.254625</v>
+        <v>1778017489.15221</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09104426342105822</v>
+        <v>0.1336024598235328</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04720628745168791</v>
+        <v>0.03729369712576323</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1955422447.005529</v>
+        <v>1653728777.513086</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1357399448888694</v>
+        <v>0.1865202066667378</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0609710565579703</v>
+        <v>0.05226955379596153</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2447088286.324087</v>
+        <v>1916968590.026797</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0999205291121697</v>
+        <v>0.09083049122473238</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04242894952390824</v>
+        <v>0.04007305294860564</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4092882375.768162</v>
+        <v>3421352642.86037</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09334568890892365</v>
+        <v>0.09891670740413019</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03498844864050659</v>
+        <v>0.04927177667997623</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>64</v>
+      </c>
+      <c r="J93" t="n">
+        <v>143</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1979042438.623364</v>
+        <v>2500880641.659422</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1147310305121661</v>
+        <v>0.1674603658283257</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03200000698320355</v>
+        <v>0.03190656897106015</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3202278609.109992</v>
+        <v>2301634190.333648</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0930987188795499</v>
+        <v>0.1012333528546739</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04834042134873458</v>
+        <v>0.03715205441027142</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1965579399.141664</v>
+        <v>2027309208.547177</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1180932066795662</v>
+        <v>0.1388898613197684</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04336959868438151</v>
+        <v>0.02990437980966192</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4831382091.121819</v>
+        <v>3389322030.127325</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1546654099816849</v>
+        <v>0.1331206542727748</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02072714520669472</v>
+        <v>0.02547338676314096</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>68</v>
+      </c>
+      <c r="J97" t="n">
+        <v>143</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2985345428.161396</v>
+        <v>2790851723.966864</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1229433981754586</v>
+        <v>0.1280926106976262</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02359174506016154</v>
+        <v>0.02315924980480917</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>33</v>
+      </c>
+      <c r="J98" t="n">
+        <v>139</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2304882032.445481</v>
+        <v>2431906354.556873</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1115527114887603</v>
+        <v>0.1123347657643124</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03303913203061172</v>
+        <v>0.02351979824114906</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4360433420.735568</v>
+        <v>3209308638.773845</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1652483457964204</v>
+        <v>0.1176147067883968</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02753204283314547</v>
+        <v>0.02760263135135912</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>59</v>
+      </c>
+      <c r="J100" t="n">
+        <v>142</v>
+      </c>
+      <c r="K100" t="n">
+        <v>82.75794038517526</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2213686251.355165</v>
+        <v>3220222294.535964</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1541374541338073</v>
+        <v>0.1825208074007611</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03521717957472847</v>
+        <v>0.04204666076530443</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>10</v>
+      </c>
+      <c r="J101" t="n">
+        <v>141</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
